--- a/biology/Botanique/Psychotria_moseskemei/Psychotria_moseskemei.xlsx
+++ b/biology/Botanique/Psychotria_moseskemei/Psychotria_moseskemei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychotria moseskemei Cheek est une espèce de plantes de la famille des Rubiaceae et du genre Psychotria, endémique de la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique moseskemei rend hommage à Moses Kemei, l'un des membres de l'équipe de Martin Cheek lors de son exploration des Bamenda Highlands (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique moseskemei rend hommage à Moses Kemei, l'un des membres de l'équipe de Martin Cheek lors de son exploration des Bamenda Highlands (en).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste dont la hauteur est généralement comprise entre 2 et 5 m[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste dont la hauteur est généralement comprise entre 2 et 5 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, dans la Région du Nord-Ouest (Bamenda Highlands, mont Oku, Dom), et dans celle de l'Ouest (mont Bamboutos), également à l'est du Nigeria (Chappal Hendu, Chappal Waddi[4]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, dans la Région du Nord-Ouest (Bamenda Highlands, mont Oku, Dom), et dans celle de l'Ouest (mont Bamboutos), également à l'est du Nigeria (Chappal Hendu, Chappal Waddi).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">P. moseskemei est présente dans les sous-bois de la forêt montagnarde ou submontagnarde, à une altitude d'environ 1 700-2 100 m, où elle est parfois confondue – lorsqu'elle est stérile – avec Chassalia laikomensis, qui présente des similitudes (silhouette, taille, forme des feuilles) et partage quelquefois le même habitat. Celui-ci étant menacé par la déforestation au profit de petites exploitations agricoles, elle est considérée comme une « espèce en danger critique d'extinction »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. moseskemei est présente dans les sous-bois de la forêt montagnarde ou submontagnarde, à une altitude d'environ 1 700-2 100 m, où elle est parfois confondue – lorsqu'elle est stérile – avec Chassalia laikomensis, qui présente des similitudes (silhouette, taille, forme des feuilles) et partage quelquefois le même habitat. Celui-ci étant menacé par la déforestation au profit de petites exploitations agricoles, elle est considérée comme une « espèce en danger critique d'extinction ».
 </t>
         </is>
       </c>
